--- a/Assets/01Scripts/DB/DataBase/DataBase.xlsx
+++ b/Assets/01Scripts/DB/DataBase/DataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\UnityFile\RPG_test123\Assets\01Scripts\DB\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unipu\Documents\GitHub\RPG_Photon\Assets\01Scripts\DB\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEBA295-98B4-4E94-B045-534DC4B7D8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51D65DD-62AA-46C8-9622-0F51D63D107F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="4270" windowWidth="13060" windowHeight="15210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="9430" windowWidth="18220" windowHeight="11400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -521,7 +521,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
